--- a/HLS_man/COP19/COP19_man_namibia.xlsx
+++ b/HLS_man/COP19/COP19_man_namibia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DD9E10-D520-4535-8B29-8FDCE3294130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C2EE03-1935-4377-8F35-D42384AE72D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="81">
   <si>
     <t>COP19_namibia</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Definition of UNFCCC principes</t>
   </si>
   <si>
-    <t>libertarian, prioritarian</t>
-  </si>
-  <si>
     <t>financial resources, technological resources</t>
   </si>
   <si>
@@ -268,9 +265,6 @@
   </si>
   <si>
     <t>national, global</t>
-  </si>
-  <si>
-    <t>namibia takes the freedom to implement local policies (libertarian), provided that others will present financial support (prioritarian)</t>
   </si>
   <si>
     <t>nearby future</t>
@@ -294,6 +288,9 @@
   </si>
   <si>
     <t>Multinational (developed countries)</t>
+  </si>
+  <si>
+    <t>Call for a redistribution of resources.</t>
   </si>
 </sst>
 </file>
@@ -666,21 +663,21 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="8" width="36.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -709,7 +706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -717,7 +714,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -725,7 +722,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -733,7 +730,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -741,7 +738,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -749,7 +746,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -757,7 +754,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -765,7 +762,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -773,7 +770,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -781,7 +778,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -789,7 +786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -797,7 +794,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -805,7 +802,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -813,7 +810,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -821,7 +818,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -829,7 +826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>62</v>
       </c>
@@ -855,7 +852,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -869,7 +866,7 @@
         <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
         <v>68</v>
@@ -881,7 +878,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -889,7 +886,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -897,7 +894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -905,25 +902,25 @@
         <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
         <v>73</v>
       </c>
-      <c r="F21" t="s">
-        <v>75</v>
-      </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -931,7 +928,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -939,7 +936,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -947,7 +944,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -970,10 +967,10 @@
         <v>57</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -981,10 +978,10 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
         <v>55</v>
@@ -999,12 +996,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -1012,7 +1009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -1020,7 +1017,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -1028,7 +1025,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -1036,7 +1033,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -1044,7 +1041,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -1052,7 +1049,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
@@ -1060,7 +1057,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>40</v>
       </c>
@@ -1068,10 +1065,10 @@
         <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
         <v>55</v>
@@ -1086,7 +1083,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
@@ -1094,7 +1091,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -1102,7 +1099,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -1110,7 +1107,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -1118,7 +1115,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>45</v>
       </c>
@@ -1126,7 +1123,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>46</v>
       </c>
@@ -1134,7 +1131,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>47</v>
       </c>
@@ -1142,7 +1139,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -1150,7 +1147,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -1158,7 +1155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -1166,7 +1163,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>51</v>
       </c>

--- a/HLS_man/COP19/COP19_man_namibia.xlsx
+++ b/HLS_man/COP19/COP19_man_namibia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C2EE03-1935-4377-8F35-D42384AE72D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DE91FC-13B7-4C88-8B0C-FCCFCCACCB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="105">
   <si>
     <t>COP19_namibia</t>
   </si>
@@ -197,100 +197,170 @@
     <t>It is for this reason, and most importantly, that Warsaw should therefore deliver to a World Decision that saves lives.</t>
   </si>
   <si>
-    <t>Do we care about human lives?</t>
-  </si>
-  <si>
-    <t>Namibia cares!
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>prioritarian</t>
+  </si>
+  <si>
+    <t>new UNFCCC policy</t>
+  </si>
+  <si>
+    <t>measures</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.a. </t>
+  </si>
+  <si>
+    <t>financial resources, technological resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitigation </t>
+  </si>
+  <si>
+    <t>nearby future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">financial resources </t>
+  </si>
+  <si>
+    <t>new UNFCCC policy, adaptation, mitigation</t>
+  </si>
+  <si>
+    <t>financial resources</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>egalitarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value judgement of how outcomes should look, referring to balanced outcomes, thus egalitarian. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">utilitarian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">value judgement about COP outcomes. Referring to global challenges and referring to the need to take on action for present and future generations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The adverse impacts of climate change know no national boundaries. </t>
+  </si>
+  <si>
+    <t>Therefore, the multilateralism approach remains the fundamental approach in fighting climate change.</t>
+  </si>
+  <si>
+    <t>Global warming is a catastrophic problem that needs a global solution.</t>
+  </si>
+  <si>
+    <t>General climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prescription of a global collaboration, indicating that everyone should contribute. </t>
+  </si>
+  <si>
+    <t>Multinational(developed countries)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing the need to follow principles of the UNFCCC, explicitly urging developed countries, making it prioritarian. </t>
+  </si>
+  <si>
+    <t>Multinational(annex-1 parties)</t>
+  </si>
+  <si>
+    <t>general normative statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advocating for action of annex-1 parties. No specific distribution preferred, only specifying urgency. </t>
+  </si>
+  <si>
+    <t>Value judgement in the need to redistribute resources in order to take on mitigation action.</t>
+  </si>
+  <si>
+    <t>new UNFCCC policy, UNFCCC agreements and principles</t>
+  </si>
+  <si>
+    <t>Prescribing the need to follow principles of the UNFCCC, explicitly referring to equitable shares and respective capabilities.</t>
+  </si>
+  <si>
+    <t>Prescribing allocation of financial resources to developing countries.</t>
+  </si>
+  <si>
+    <t>Prescribing a specifc approach to developing new policy. No specific distribution preferred.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expressing value judgement about what should be achieved: better addressing challenges and equipment. No mention of how. </t>
+  </si>
+  <si>
+    <t>new UNFCCC policy, mitigation, adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judges the fact that the funding is not there yet, the essence of the preferred distribution is prioritarian. </t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles, other(implementation)</t>
+  </si>
+  <si>
+    <t>Prescribing the urge to implementation, no specific mention of the distribution</t>
+  </si>
+  <si>
+    <t>New UNFCCC policy</t>
+  </si>
+  <si>
+    <t>utilitarian</t>
+  </si>
+  <si>
+    <t>prescribing the need to make new policys for the benefit of future lives.</t>
+  </si>
+  <si>
+    <t>Prescribing the urge to make new policies, improving the welfare of future lives, improving overall welfare.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value judgement on the catastrophy and need of a global solution in benefit of all. </t>
+  </si>
+  <si>
+    <t>Judgement on the consequences of inactions, implying that there is a duty to do something.</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 I thank you</t>
   </si>
   <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>prioritarian</t>
-  </si>
-  <si>
-    <t>libertarianism, prioritarian</t>
-  </si>
-  <si>
-    <t>allocation of financial resources to developing countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GCF is developed to support developing countries. </t>
-  </si>
-  <si>
-    <t>new UNFCCC policy</t>
-  </si>
-  <si>
-    <t>measures</t>
-  </si>
-  <si>
-    <t>The adverse impacts of climate change know no national boundaries. Global warming is a catastrophic problem that needs a global solution. Therefore, the multilateralism approach remains the fundamental approach in fighting climate change.</t>
-  </si>
-  <si>
-    <t>n.a.</t>
-  </si>
-  <si>
-    <t>adaptation, mitigation</t>
-  </si>
-  <si>
-    <t>utilitarian, egalitarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">working together in multilateral agreement (egalitarian) to solve the global problem of climate change (utilitarian). </t>
-  </si>
-  <si>
-    <t>UNFCCC agreements and principles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.a. </t>
-  </si>
-  <si>
-    <t>Definition of UNFCCC principes</t>
-  </si>
-  <si>
-    <t>financial resources, technological resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitigation </t>
-  </si>
-  <si>
-    <t>national, global</t>
-  </si>
-  <si>
-    <t>nearby future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">financial resources </t>
-  </si>
-  <si>
-    <t>new UNFCCC policy, adaptation, mitigation</t>
-  </si>
-  <si>
-    <t>Historical responsibility (libertarian), 
-Right to equitable share of atmospheric space (egalitarian)
-Principles and provisions of the UNFCCC (prioritarian)</t>
-  </si>
-  <si>
-    <t>other(GCF)</t>
-  </si>
-  <si>
-    <t>financial resources</t>
-  </si>
-  <si>
-    <t>Multinational (developed countries)</t>
-  </si>
-  <si>
-    <t>Call for a redistribution of resources.</t>
+    <t>Do we care about human lives? Namibia cares!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normative statement presenting that human life should be valued, no specific distribution. </t>
+  </si>
+  <si>
+    <t>GCF</t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles, implementation</t>
+  </si>
+  <si>
+    <t>human lives</t>
   </si>
 </sst>
 </file>
@@ -660,24 +730,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="8" max="8" width="36.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -685,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -706,469 +776,722 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="97.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="H20" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
         <v>79</v>
-      </c>
-      <c r="F18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" t="s">
-        <v>56</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="F35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="H37" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
         <v>55</v>
       </c>
-      <c r="F25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="D45" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="E45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="E46" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" t="s">
-        <v>53</v>
+      <c r="F46" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
